--- a/output.xlsx
+++ b/output.xlsx
@@ -38,271 +38,271 @@
     <t>Слот</t>
   </si>
   <si>
+    <t>Доц_1</t>
+  </si>
+  <si>
+    <t>Доц_4</t>
+  </si>
+  <si>
+    <t>Асс_2</t>
+  </si>
+  <si>
+    <t>Проф_3</t>
+  </si>
+  <si>
     <t>Проф_1</t>
   </si>
   <si>
-    <t>Доц_4</t>
-  </si>
-  <si>
-    <t>Проф_3</t>
+    <t>Доц_2</t>
+  </si>
+  <si>
+    <t>Асс_1</t>
+  </si>
+  <si>
+    <t>Проф_2</t>
+  </si>
+  <si>
+    <t>Предмет_11</t>
+  </si>
+  <si>
+    <t>Предмет_15</t>
+  </si>
+  <si>
+    <t>Предмет_5</t>
+  </si>
+  <si>
+    <t>Предмет_1</t>
+  </si>
+  <si>
+    <t>Предмет_13</t>
+  </si>
+  <si>
+    <t>Предмет_3</t>
+  </si>
+  <si>
+    <t>Предмет_14</t>
+  </si>
+  <si>
+    <t>Предмет_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_2 (1/2) </t>
+  </si>
+  <si>
+    <t>Группа_1_1 (1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_2 (2/2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1_2 (2/2) </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1, Группа_2 </t>
+  </si>
+  <si>
+    <t>Группа_1</t>
+  </si>
+  <si>
+    <t>Группа_2</t>
+  </si>
+  <si>
+    <t>№ ауд</t>
+  </si>
+  <si>
+    <t>нельзя использовать</t>
   </si>
   <si>
     <t>Проф_4</t>
   </si>
   <si>
-    <t>Асс_2</t>
-  </si>
-  <si>
-    <t>Асс_1</t>
-  </si>
-  <si>
     <t>Доц_3</t>
   </si>
   <si>
-    <t>Проф_2</t>
-  </si>
-  <si>
-    <t>Доц_2</t>
-  </si>
-  <si>
-    <t>Доц_1</t>
-  </si>
-  <si>
-    <t>Предмет_1</t>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Пон</t>
+  </si>
+  <si>
+    <t>Вт</t>
+  </si>
+  <si>
+    <t>Ср</t>
+  </si>
+  <si>
+    <t>Чт</t>
+  </si>
+  <si>
+    <t>Пт</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Число часов</t>
+  </si>
+  <si>
+    <t>Сколько должно быть</t>
+  </si>
+  <si>
+    <t>Предмет_2</t>
+  </si>
+  <si>
+    <t>Предмет_6</t>
+  </si>
+  <si>
+    <t>Предмет_7</t>
+  </si>
+  <si>
+    <t>Предмет_8</t>
+  </si>
+  <si>
+    <t>Предмет_9</t>
+  </si>
+  <si>
+    <t>Предмет_10</t>
+  </si>
+  <si>
+    <t>Предмет_12</t>
   </si>
   <si>
     <t>Предмет_16</t>
-  </si>
-  <si>
-    <t>Предмет_9</t>
-  </si>
-  <si>
-    <t>Предмет_15</t>
-  </si>
-  <si>
-    <t>Предмет_10</t>
-  </si>
-  <si>
-    <t>Предмет_2</t>
-  </si>
-  <si>
-    <t>Предмет_8</t>
-  </si>
-  <si>
-    <t>Предмет_5</t>
-  </si>
-  <si>
-    <t>Предмет_4</t>
-  </si>
-  <si>
-    <t>Предмет_3</t>
-  </si>
-  <si>
-    <t>Предмет_12</t>
-  </si>
-  <si>
-    <t>Предмет_14</t>
-  </si>
-  <si>
-    <t>Предмет_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (2/2) </t>
-  </si>
-  <si>
-    <t>Группа_1_1 (1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1_2 (2/2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (1/2) </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1, Группа_2 </t>
-  </si>
-  <si>
-    <t>Группа_1</t>
-  </si>
-  <si>
-    <t>Группа_2</t>
-  </si>
-  <si>
-    <t>№ ауд</t>
-  </si>
-  <si>
-    <t>нельзя использовать</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Пон</t>
-  </si>
-  <si>
-    <t>Вт</t>
-  </si>
-  <si>
-    <t>Ср</t>
-  </si>
-  <si>
-    <t>Чт</t>
-  </si>
-  <si>
-    <t>Пт</t>
-  </si>
-  <si>
-    <t>Сб</t>
-  </si>
-  <si>
-    <t>День</t>
-  </si>
-  <si>
-    <t>Сложность</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Число часов</t>
-  </si>
-  <si>
-    <t>Сколько должно быть</t>
-  </si>
-  <si>
-    <t>Предмет_6</t>
-  </si>
-  <si>
-    <t>Предмет_7</t>
-  </si>
-  <si>
-    <t>Предмет_11</t>
   </si>
 </sst>
 </file>
@@ -688,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -722,13 +722,13 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -736,16 +736,16 @@
     </row>
     <row r="8" spans="4:8">
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -753,121 +753,121 @@
     </row>
     <row r="9" spans="4:8">
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
         <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="4:8">
@@ -875,16 +875,16 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="4:8">
@@ -895,47 +895,47 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="4:8">
       <c r="D18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:8">
@@ -943,166 +943,166 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="4:8">
       <c r="D21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="4:8">
       <c r="D22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="4:8">
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="4:8">
       <c r="D25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:8">
       <c r="D26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="4:8">
       <c r="D27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="4:8">
       <c r="D28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="30" spans="4:8">
       <c r="D30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
         <v>20</v>
       </c>
-      <c r="F30">
-        <v>14</v>
-      </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="31" spans="4:8">
       <c r="D31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="32" spans="4:8">
       <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="33" spans="4:8">
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="34" spans="4:8">
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="35" spans="4:8">
       <c r="D35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="36" spans="4:8">
       <c r="D36" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="37" spans="4:8">
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="38" spans="4:8">
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="39" spans="4:8">
       <c r="D39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F39">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="40" spans="4:8">
       <c r="D40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="41" spans="4:8">
       <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
         <v>13</v>
       </c>
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41">
-        <v>16</v>
-      </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="42" spans="4:8">
       <c r="D42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="43" spans="4:8">
       <c r="D43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F43">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="44" spans="4:8">
       <c r="D44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H44">
         <v>41</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="45" spans="4:8">
       <c r="D45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H45">
         <v>42</v>
@@ -1398,288 +1398,288 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AN10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" t="s">
+      <c r="AI11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>18</v>
       </c>
-      <c r="V11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AP11" t="s">
         <v>15</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AS11" t="s">
         <v>15</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>18</v>
+      <c r="AO12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="AG13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>15</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1697,374 +1697,374 @@
   <sheetData>
     <row r="6" spans="3:45">
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>30</v>
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:45">
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="3:45">
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:45">
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:45">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:45">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:45">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:45">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:45">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:45">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:45">
+      <c r="C23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:44">
-      <c r="C17" t="s">
+    <row r="24" spans="3:45">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="3:44">
-      <c r="C18" t="s">
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:45">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="3:44">
-      <c r="C19" t="s">
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:45">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:44">
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:44">
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:44">
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:44">
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:44">
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:44">
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="3:44">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>30</v>
+      <c r="N26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2085,261 +2085,270 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
       </c>
       <c r="Y7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AA8" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>21</v>
+      <c r="AE8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>15</v>
       </c>
       <c r="AQ9" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>17</v>
       </c>
+      <c r="AK12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>17</v>
+      </c>
       <c r="AO12" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:45">
@@ -2347,62 +2356,53 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>16</v>
-      </c>
-      <c r="U14" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
       </c>
       <c r="AB14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="3:45">
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:45">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
       </c>
       <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2420,25 +2420,25 @@
   <sheetData>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -2452,16 +2452,16 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -2475,16 +2475,16 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -2495,19 +2495,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -2515,42 +2515,42 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
         <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -2564,16 +2564,16 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -2581,22 +2581,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2614,25 +2614,25 @@
   <sheetData>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -2640,22 +2640,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -2663,22 +2663,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -2686,22 +2686,22 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -2709,42 +2709,42 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -2752,22 +2752,22 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -2775,22 +2775,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2811,312 +2811,312 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -3130,30 +3130,30 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3177,106 +3177,106 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3285,15 +3285,15 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3307,78 +3307,78 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3387,49 +3387,49 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3443,78 +3443,78 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3523,15 +3523,15 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3557,15 +3557,15 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3579,112 +3579,112 @@
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="37" spans="3:7">
       <c r="C37" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3715,112 +3715,112 @@
     </row>
     <row r="38" spans="3:7">
       <c r="C38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="3:7">
       <c r="C39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:7">
       <c r="C40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3829,15 +3829,15 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="3:7">
       <c r="C45" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3851,78 +3851,78 @@
     </row>
     <row r="46" spans="3:7">
       <c r="C46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="3:7">
       <c r="C47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="3:7">
       <c r="C48" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="3:7">
       <c r="C49" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>3</v>
       </c>
       <c r="G49">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="3:7">
       <c r="C50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3931,49 +3931,49 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="3:7">
       <c r="C51" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="3:7">
       <c r="C52" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="3:7">
       <c r="C53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3987,112 +3987,112 @@
     </row>
     <row r="54" spans="3:7">
       <c r="C54" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="3:7">
       <c r="C55" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="3:7">
       <c r="C56" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="3:7">
       <c r="C57" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="3:7">
       <c r="C58" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="3:7">
       <c r="C59" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="3:7">
       <c r="C60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4101,15 +4101,15 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="3:7">
       <c r="C61" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4123,78 +4123,78 @@
     </row>
     <row r="62" spans="3:7">
       <c r="C62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="3:7">
       <c r="C63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="3:7">
       <c r="C64" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="3:7">
       <c r="C65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="3:7">
       <c r="C66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4203,75 +4203,75 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="3:7">
       <c r="C67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="3:7">
       <c r="C69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="3:7">
       <c r="C70" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="91">
   <si>
     <t>Преподаватель</t>
   </si>
@@ -38,213 +38,228 @@
     <t>Слот</t>
   </si>
   <si>
+    <t>Доц_4</t>
+  </si>
+  <si>
+    <t>Acc_3</t>
+  </si>
+  <si>
+    <t>Доц_2</t>
+  </si>
+  <si>
+    <t>Асс_2</t>
+  </si>
+  <si>
+    <t>Доц_3</t>
+  </si>
+  <si>
+    <t>Проф_1</t>
+  </si>
+  <si>
+    <t>Проф_4</t>
+  </si>
+  <si>
+    <t>Проф_3</t>
+  </si>
+  <si>
+    <t>Проф_2</t>
+  </si>
+  <si>
+    <t>Асс_1</t>
+  </si>
+  <si>
+    <t>Предмет_11</t>
+  </si>
+  <si>
+    <t>Предмет_3</t>
+  </si>
+  <si>
+    <t>Предмет_5</t>
+  </si>
+  <si>
+    <t>Предмет_2</t>
+  </si>
+  <si>
+    <t>Предмет_12</t>
+  </si>
+  <si>
+    <t>Предмет_1</t>
+  </si>
+  <si>
+    <t>Предмет_4</t>
+  </si>
+  <si>
+    <t>Предмет_8</t>
+  </si>
+  <si>
+    <t>Предмет_9</t>
+  </si>
+  <si>
+    <t>Предмет_6</t>
+  </si>
+  <si>
+    <t>Предмет_10</t>
+  </si>
+  <si>
+    <t>Предмет_7</t>
+  </si>
+  <si>
+    <t>Группа_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_1 (2/1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1, Группа_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_2 (2/2) </t>
+  </si>
+  <si>
+    <t>Группа_2</t>
+  </si>
+  <si>
+    <t>Группа_1_1 (1/1)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1_2 (1/2) </t>
+  </si>
+  <si>
+    <t>№ ауд</t>
+  </si>
+  <si>
+    <t>нельзя использовать</t>
+  </si>
+  <si>
     <t>Доц_1</t>
   </si>
   <si>
-    <t>Доц_4</t>
-  </si>
-  <si>
-    <t>Асс_2</t>
-  </si>
-  <si>
-    <t>Проф_3</t>
-  </si>
-  <si>
-    <t>Проф_1</t>
-  </si>
-  <si>
-    <t>Доц_2</t>
-  </si>
-  <si>
-    <t>Асс_1</t>
-  </si>
-  <si>
-    <t>Проф_2</t>
-  </si>
-  <si>
-    <t>Предмет_11</t>
-  </si>
-  <si>
-    <t>Предмет_15</t>
-  </si>
-  <si>
-    <t>Предмет_5</t>
-  </si>
-  <si>
-    <t>Предмет_1</t>
-  </si>
-  <si>
-    <t>Предмет_13</t>
-  </si>
-  <si>
-    <t>Предмет_3</t>
-  </si>
-  <si>
-    <t>Предмет_14</t>
-  </si>
-  <si>
-    <t>Предмет_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (1/2) </t>
-  </si>
-  <si>
-    <t>Группа_1_1 (1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (2/2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1_2 (2/2) </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1, Группа_2 </t>
-  </si>
-  <si>
-    <t>Группа_1</t>
-  </si>
-  <si>
-    <t>Группа_2</t>
-  </si>
-  <si>
-    <t>№ ауд</t>
-  </si>
-  <si>
-    <t>нельзя использовать</t>
-  </si>
-  <si>
-    <t>Проф_4</t>
-  </si>
-  <si>
-    <t>Доц_3</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -279,30 +294,6 @@
   </si>
   <si>
     <t>Сколько должно быть</t>
-  </si>
-  <si>
-    <t>Предмет_2</t>
-  </si>
-  <si>
-    <t>Предмет_6</t>
-  </si>
-  <si>
-    <t>Предмет_7</t>
-  </si>
-  <si>
-    <t>Предмет_8</t>
-  </si>
-  <si>
-    <t>Предмет_9</t>
-  </si>
-  <si>
-    <t>Предмет_10</t>
-  </si>
-  <si>
-    <t>Предмет_12</t>
-  </si>
-  <si>
-    <t>Предмет_16</t>
   </si>
 </sst>
 </file>
@@ -688,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -705,13 +696,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -719,16 +710,16 @@
     </row>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -736,16 +727,16 @@
     </row>
     <row r="8" spans="4:8">
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -753,240 +744,240 @@
     </row>
     <row r="9" spans="4:8">
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
         <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="D10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="D12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="D16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="4:8">
       <c r="D17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="4:8">
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
         <v>14</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:8">
       <c r="D20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:8">
       <c r="D21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="4:8">
       <c r="D22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="4:8">
@@ -994,13 +985,13 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -1008,16 +999,16 @@
     </row>
     <row r="24" spans="4:8">
       <c r="D24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -1025,16 +1016,16 @@
     </row>
     <row r="25" spans="4:8">
       <c r="D25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -1042,16 +1033,16 @@
     </row>
     <row r="26" spans="4:8">
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -1059,16 +1050,16 @@
     </row>
     <row r="27" spans="4:8">
       <c r="D27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -1076,16 +1067,16 @@
     </row>
     <row r="28" spans="4:8">
       <c r="D28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -1093,16 +1084,16 @@
     </row>
     <row r="29" spans="4:8">
       <c r="D29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
         <v>13</v>
       </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -1110,16 +1101,16 @@
     </row>
     <row r="30" spans="4:8">
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -1127,16 +1118,16 @@
     </row>
     <row r="31" spans="4:8">
       <c r="D31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -1144,16 +1135,16 @@
     </row>
     <row r="32" spans="4:8">
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -1161,16 +1152,16 @@
     </row>
     <row r="33" spans="4:8">
       <c r="D33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1178,16 +1169,16 @@
     </row>
     <row r="34" spans="4:8">
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -1195,16 +1186,16 @@
     </row>
     <row r="35" spans="4:8">
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -1215,13 +1206,13 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -1229,16 +1220,16 @@
     </row>
     <row r="37" spans="4:8">
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -1246,16 +1237,16 @@
     </row>
     <row r="38" spans="4:8">
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -1263,16 +1254,16 @@
     </row>
     <row r="39" spans="4:8">
       <c r="D39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -1280,16 +1271,16 @@
     </row>
     <row r="40" spans="4:8">
       <c r="D40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -1300,13 +1291,13 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -1314,16 +1305,16 @@
     </row>
     <row r="42" spans="4:8">
       <c r="D42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -1331,16 +1322,16 @@
     </row>
     <row r="43" spans="4:8">
       <c r="D43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -1348,16 +1339,16 @@
     </row>
     <row r="44" spans="4:8">
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>41</v>
@@ -1365,16 +1356,16 @@
     </row>
     <row r="45" spans="4:8">
       <c r="D45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>42</v>
@@ -1398,288 +1389,288 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-      <c r="X10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
         <v>20</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="AH12" t="s">
         <v>18</v>
       </c>
-      <c r="S12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>17</v>
+      <c r="AI12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
         <v>16</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AA13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
         <v>18</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1697,374 +1688,380 @@
   <sheetData>
     <row r="6" spans="3:45">
       <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AP6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>27</v>
       </c>
       <c r="AM10" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>24</v>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:45">
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:45">
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="3:45">
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:45">
+        <v>42</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37">
       <c r="C17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37">
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:45">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37">
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:45">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37">
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:37">
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:45">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37">
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="X22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="3:45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:37">
       <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="3:37">
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:45">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:37">
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="3:45">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:37">
       <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:AS16"/>
+  <dimension ref="C6:AS17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2085,324 +2082,329 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:45">
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" t="s">
-        <v>18</v>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:45">
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:45">
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:45">
       <c r="C10" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="3:45">
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="3:45">
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>22</v>
       </c>
       <c r="AN12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:45">
       <c r="C13" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:45">
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>15</v>
       </c>
       <c r="AB14" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="3:45">
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" t="s">
-        <v>19</v>
-      </c>
-      <c r="X15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:45">
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Y17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="s">
         <v>16</v>
       </c>
-      <c r="AF16" t="s">
-        <v>16</v>
+      <c r="AF17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2420,25 +2422,25 @@
   <sheetData>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -2449,19 +2451,19 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -2472,19 +2474,19 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -2492,19 +2494,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2515,42 +2517,42 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -2558,22 +2560,22 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -2581,22 +2583,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
         <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2614,25 +2616,25 @@
   <sheetData>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -2640,22 +2642,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -2663,22 +2665,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -2686,22 +2688,22 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -2709,42 +2711,42 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -2752,22 +2754,22 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -2775,22 +2777,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2811,60 +2813,60 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2878,282 +2880,282 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:G70"/>
+  <dimension ref="C6:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3177,231 +3179,231 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
       </c>
       <c r="G19">
         <v>100</v>
@@ -3409,84 +3411,84 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -3494,288 +3496,288 @@
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:7">
       <c r="C37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:7">
       <c r="C38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:7">
       <c r="C39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:7">
       <c r="C40" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -3783,495 +3785,223 @@
     </row>
     <row r="42" spans="3:7">
       <c r="C42" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:7">
       <c r="C45" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:7">
       <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
       <c r="E46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:7">
       <c r="C47" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:7">
       <c r="C48" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:7">
       <c r="C49" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:7">
       <c r="C50" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:7">
       <c r="C51" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:7">
       <c r="C52" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:7">
       <c r="C53" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:7">
       <c r="C54" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7">
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7">
-      <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
